--- a/E2M2-2020/Admin/Rosters/Small-Group-Sessions.xlsx
+++ b/E2M2-2020/Admin/Rosters/Small-Group-Sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/Documents/R/R_repositories/E2M2/E2M2-2020/Admin/Rosters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67563A-012E-8448-85A6-36DDA5CEED13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D1612-824C-9D4E-B300-5DE4D51EF50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="940" windowWidth="27640" windowHeight="16260" xr2:uid="{3C0E4F26-A871-B243-A6FF-E24A2C70C399}"/>
+    <workbookView xWindow="1160" yWindow="940" windowWidth="27640" windowHeight="16260" xr2:uid="{3C0E4F26-A871-B243-A6FF-E24A2C70C399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -297,19 +297,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,64 +649,65 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="69.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -697,54 +715,54 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -752,131 +770,131 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -884,21 +902,21 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -906,43 +924,43 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -950,13 +968,13 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>59</v>
       </c>
     </row>
